--- a/application/views/rpt/ru/StockMovements.xlsx
+++ b/application/views/rpt/ru/StockMovements.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
   </bookViews>
   <sheets>
-    <sheet name="Акт звіряння" sheetId="1" r:id="rId1"/>
+    <sheet name="Движение товара" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Код</t>
   </si>
   <si>
-    <t>Перевірив_______________________________</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Виписав________________________________ /{$v-&gt;user_sign}/  </t>
-  </si>
-  <si>
     <t>Дата</t>
   </si>
   <si>
@@ -34,12 +28,6 @@
     <t>Контрагент</t>
   </si>
   <si>
-    <t>Прихід</t>
-  </si>
-  <si>
-    <t>Видаток</t>
-  </si>
-  <si>
     <t>{$v-&gt;table-&gt;rows[]-&gt;product_code}</t>
   </si>
   <si>
@@ -58,26 +46,32 @@
     <t>{$v-&gt;table-&gt;rows[]-&gt;oper_date}</t>
   </si>
   <si>
-    <t>Назва</t>
-  </si>
-  <si>
-    <t>Рух товару на {$v-&gt;date}</t>
-  </si>
-  <si>
-    <t>Підприємство</t>
-  </si>
-  <si>
     <t>{$v-&gt;table-&gt;rows[]-&gt;alabel}</t>
   </si>
   <si>
     <t>{$v-&gt;table-&gt;rows[]-&gt;plabel}</t>
+  </si>
+  <si>
+    <t>Предприятие</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Приход</t>
+  </si>
+  <si>
+    <t>Расход</t>
+  </si>
+  <si>
+    <t>Движения товаров {$v-&gt;date}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,14 +101,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -154,7 +140,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -170,7 +156,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor rgb="FF95CAD9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -318,7 +304,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -337,32 +323,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -378,6 +361,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF95CAD9"/>
       <color rgb="FF008000"/>
     </mruColors>
   </colors>
@@ -679,95 +663,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H3" sqref="A3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="27.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="8" customWidth="1"/>
+    <col min="1" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="27.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="8" customWidth="1"/>
     <col min="8" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="7"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="19" t="s">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="E3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="20" t="s">
+      <c r="G4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -777,35 +761,15 @@
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-    </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A8:E8"/>
+  <mergeCells count="2">
     <mergeCell ref="E6:H6"/>
-    <mergeCell ref="A7:E7"/>
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4">

--- a/application/views/rpt/ru/StockMovements.xlsx
+++ b/application/views/rpt/ru/StockMovements.xlsx
@@ -4,28 +4,58 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="22020" windowHeight="10080"/>
   </bookViews>
   <sheets>
-    <sheet name="Движение товара" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>Движения товаров {$v-&gt;date}</t>
+  </si>
+  <si>
+    <t>Предприятие</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Документ</t>
+  </si>
+  <si>
+    <t>Контрагент</t>
+  </si>
   <si>
     <t>Код</t>
   </si>
   <si>
-    <t>Дата</t>
-  </si>
-  <si>
-    <t>Документ</t>
-  </si>
-  <si>
-    <t>Контрагент</t>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Приход</t>
+  </si>
+  <si>
+    <t>Расход</t>
+  </si>
+  <si>
+    <t>Учетная</t>
+  </si>
+  <si>
+    <t>{$v-&gt;table-&gt;rows[]-&gt;alabel}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;table-&gt;rows[]-&gt;oper_date}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;table-&gt;rows[]-&gt;doc}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;table-&gt;rows[]-&gt;plabel}</t>
   </si>
   <si>
     <t>{$v-&gt;table-&gt;rows[]-&gt;product_code}</t>
@@ -34,44 +64,20 @@
     <t>{$v-&gt;table-&gt;rows[]-&gt;ru}</t>
   </si>
   <si>
+    <t>{$v-&gt;table-&gt;rows[]-&gt;buy}</t>
+  </si>
+  <si>
     <t>{$v-&gt;table-&gt;rows[]-&gt;sell}</t>
   </si>
   <si>
-    <t>{$v-&gt;table-&gt;rows[]-&gt;buy}</t>
-  </si>
-  <si>
-    <t>{$v-&gt;table-&gt;rows[]-&gt;doc}</t>
-  </si>
-  <si>
-    <t>{$v-&gt;table-&gt;rows[]-&gt;oper_date}</t>
-  </si>
-  <si>
-    <t>{$v-&gt;table-&gt;rows[]-&gt;alabel}</t>
-  </si>
-  <si>
-    <t>{$v-&gt;table-&gt;rows[]-&gt;plabel}</t>
-  </si>
-  <si>
-    <t>Предприятие</t>
-  </si>
-  <si>
-    <t>Название</t>
-  </si>
-  <si>
-    <t>Приход</t>
-  </si>
-  <si>
-    <t>Расход</t>
-  </si>
-  <si>
-    <t>Движения товаров {$v-&gt;date}</t>
+    <t>{$v-&gt;table-&gt;rows[]-&gt;self}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,7 +87,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -101,8 +108,16 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -124,24 +139,8 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
+      <color theme="1" tint="0.34998626667073579"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -170,13 +169,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -185,7 +184,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -245,113 +289,71 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -359,18 +361,9 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FF95CAD9"/>
-      <color rgb="FF008000"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -663,113 +656,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="A3:H3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="1"/>
-    <col min="3" max="3" width="27.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="H4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E6:H6"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4">
@@ -778,6 +773,5 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>